--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -24,6 +24,126 @@
   </si>
   <si>
     <t>Teléfono</t>
+  </si>
+  <si>
+    <t>2020087412</t>
+  </si>
+  <si>
+    <t>Buenas Salazar Rojas</t>
+  </si>
+  <si>
+    <t>asalazar@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>60408135</t>
+  </si>
+  <si>
+    <t>2023153905</t>
+  </si>
+  <si>
+    <t>Ronaldo Torres Ugalde</t>
+  </si>
+  <si>
+    <t>rtorres@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>87654321</t>
+  </si>
+  <si>
+    <t>2021500501</t>
+  </si>
+  <si>
+    <t>Gabriel Gonzalez Sanchez</t>
+  </si>
+  <si>
+    <t>ggonzalez@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>63149265</t>
+  </si>
+  <si>
+    <t>2023728806</t>
+  </si>
+  <si>
+    <t>Daniel Martinez Hernandez</t>
+  </si>
+  <si>
+    <t>dmartinez@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>77822347</t>
+  </si>
+  <si>
+    <t>2022970142</t>
+  </si>
+  <si>
+    <t>Sofia Rodriguez Gomez</t>
+  </si>
+  <si>
+    <t>srodriguez@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>88146780</t>
+  </si>
+  <si>
+    <t>2023862865</t>
+  </si>
+  <si>
+    <t>Valentina Lopez Torres</t>
+  </si>
+  <si>
+    <t>vlopez@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>86122258</t>
+  </si>
+  <si>
+    <t>2023486379</t>
+  </si>
+  <si>
+    <t>Sebastian Hernandez Flores</t>
+  </si>
+  <si>
+    <t>shernandez@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>84261294</t>
+  </si>
+  <si>
+    <t>2021234404</t>
+  </si>
+  <si>
+    <t>Mateo Garcia Vargas</t>
+  </si>
+  <si>
+    <t>mgarcia@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>74238440</t>
+  </si>
+  <si>
+    <t>2021205513</t>
+  </si>
+  <si>
+    <t>Isabella Perez Jimenez</t>
+  </si>
+  <si>
+    <t>iperez@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>75698815</t>
+  </si>
+  <si>
+    <t>2023927665</t>
+  </si>
+  <si>
+    <t>Camila Torres Diaz</t>
+  </si>
+  <si>
+    <t>ctorres@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>67135585</t>
   </si>
 </sst>
 </file>
@@ -68,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +208,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -101,7 +101,7 @@
     <t>2023486379</t>
   </si>
   <si>
-    <t>Sebastian Hernandez Flores</t>
+    <t>Sebastian Hernandez Obando</t>
   </si>
   <si>
     <t>shernandez@estudiantec.cr</t>
@@ -144,6 +144,78 @@
   </si>
   <si>
     <t>67135585</t>
+  </si>
+  <si>
+    <t>2020617352</t>
+  </si>
+  <si>
+    <t>Eladio Hernandez Gutierrez</t>
+  </si>
+  <si>
+    <t>ehernandez723@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>86435450</t>
+  </si>
+  <si>
+    <t>2021982563</t>
+  </si>
+  <si>
+    <t>Andrea Zonta Zuñiga</t>
+  </si>
+  <si>
+    <t>azonta127@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>85160679</t>
+  </si>
+  <si>
+    <t>2020177231</t>
+  </si>
+  <si>
+    <t>Maria Mendez Elizondo</t>
+  </si>
+  <si>
+    <t>mmendez625@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>62846321</t>
+  </si>
+  <si>
+    <t>2021716361</t>
+  </si>
+  <si>
+    <t>Hilda Bravo Gonzalez</t>
+  </si>
+  <si>
+    <t>hbravo370@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>86632112</t>
+  </si>
+  <si>
+    <t>2019277234</t>
+  </si>
+  <si>
+    <t>Ana Valerio Romero</t>
+  </si>
+  <si>
+    <t>avalerio126@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>81343222</t>
+  </si>
+  <si>
+    <t>2020856319</t>
+  </si>
+  <si>
+    <t>Jose Cañipa Hernandez</t>
+  </si>
+  <si>
+    <t>jcanipa173@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>85553321</t>
   </si>
 </sst>
 </file>
@@ -188,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -348,6 +420,90 @@
         <v>43</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
